--- a/fc/web-app/docs/samples/FC-TakoffLandingCalculation-Sample.xlsx
+++ b/fc/web-app/docs/samples/FC-TakoffLandingCalculation-Sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\GIT\FlightContest\deploy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EPJ\fcdev\fc\web-app\docs\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B900E76-3978-4526-9DC9-0F602DE3F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="16515" windowHeight="10305"/>
+    <workbookView xWindow="-18525" yWindow="3720" windowWidth="18000" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="An-Abflug-Berechnung" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'An-Abflug-Berechnung'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>NM</t>
   </si>
@@ -93,16 +105,16 @@
     <t>Veranstalter</t>
   </si>
   <si>
-    <t>Version 3</t>
+    <t>Version 4</t>
+  </si>
+  <si>
+    <t>Ausgemessene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,13 +221,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -241,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -316,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -555,7 +604,7 @@
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -583,23 +632,25 @@
       <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
@@ -632,12 +683,12 @@
         <v>4.53</v>
       </c>
       <c r="D11" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="16">
         <v>9.1</v>
       </c>
       <c r="G11" s="2">
@@ -646,18 +697,18 @@
       </c>
       <c r="H11" s="2">
         <f>D11+G11</f>
-        <v>7.5699999999999994</v>
+        <v>4.5699999999999994</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H11,1),"NM")</f>
-        <v>wind+:7,6NM</v>
+        <v>wind+:4,6NM</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E12" s="6">
         <v>24</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="16">
         <v>8.9</v>
       </c>
       <c r="G12" s="2">
@@ -666,11 +717,11 @@
       </c>
       <c r="H12" s="2">
         <f>D11+G12</f>
-        <v>7.37</v>
+        <v>4.37</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H12,1),"NM")</f>
-        <v>wind+:7,4NM</v>
+        <v>wind+:4,4NM</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -681,12 +732,12 @@
         <v>4.22</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="16">
         <v>6.7</v>
       </c>
       <c r="G14" s="2">
@@ -695,18 +746,18 @@
       </c>
       <c r="H14" s="2">
         <f>D14+G14</f>
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H14,1),"NM")</f>
-        <v>wind+:4,5NM</v>
+        <v>wind+:2,5NM</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="16">
         <v>6.6</v>
       </c>
       <c r="G15" s="2">
@@ -715,11 +766,11 @@
       </c>
       <c r="H15" s="2">
         <f>D14+G15</f>
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H15,1),"NM")</f>
-        <v>wind+:4,4NM</v>
+        <v>wind+:2,4NM</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -730,13 +781,13 @@
         <v>3.99</v>
       </c>
       <c r="D17" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12" t="str">
         <f>E14</f>
         <v>09</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="16">
         <v>7.8</v>
       </c>
       <c r="G17" s="2">
@@ -745,11 +796,11 @@
       </c>
       <c r="H17" s="2">
         <f>D17+G17</f>
-        <v>6.81</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H17,1),"NM")</f>
-        <v>wind+:6,8NM</v>
+        <v>wind+:3,8NM</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -757,7 +808,7 @@
         <f>E15</f>
         <v>27</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="16">
         <v>8</v>
       </c>
       <c r="G18" s="2">
@@ -766,11 +817,11 @@
       </c>
       <c r="H18" s="2">
         <f>D17+G18</f>
-        <v>7.01</v>
+        <v>4.01</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H18,1),"NM")</f>
-        <v>wind+:7NM</v>
+        <v>wind+:4NM</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -781,13 +832,13 @@
         <v>3.15</v>
       </c>
       <c r="D20" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="12" t="str">
         <f>E11</f>
         <v>06</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="16">
         <v>5.7</v>
       </c>
       <c r="G20" s="2">
@@ -796,11 +847,11 @@
       </c>
       <c r="H20" s="2">
         <f>D20+G20</f>
-        <v>8.5500000000000007</v>
+        <v>5.5500000000000007</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H20,1),"NM")</f>
-        <v>wind+:8,6NM</v>
+        <v>wind+:5,6NM</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -808,7 +859,7 @@
         <f>E12</f>
         <v>24</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="16">
         <v>9</v>
       </c>
       <c r="G21" s="2">
@@ -817,11 +868,11 @@
       </c>
       <c r="H21" s="2">
         <f>D20+G21</f>
-        <v>11.85</v>
+        <v>8.85</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>CONCATENATE("wind+:",ROUND(H21,1),"NM")</f>
-        <v>wind+:11,9NM</v>
+        <v>wind+:8,9NM</v>
       </c>
     </row>
   </sheetData>
